--- a/Data/aearep-426/candidatepackages.xlsx
+++ b/Data/aearep-426/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,15 +22,9 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ivreg2</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -55,61 +49,61 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
     <t>keeporder</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>centroid</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>spgrid</t>
+  </si>
+  <si>
     <t>acreg</t>
   </si>
   <si>
-    <t>spgrid</t>
-  </si>
-  <si>
-    <t>centroid</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>plausexog</t>
   </si>
   <si>
     <t>split</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>spkde</t>
   </si>
   <si>
-    <t>white</t>
+    <t>median</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>kernel</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>kernel</t>
-  </si>
-  <si>
-    <t>pre</t>
+    <t>effects</t>
   </si>
   <si>
     <t>map</t>
@@ -118,18 +112,6 @@
     <t>care</t>
   </si>
   <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>unemp</t>
   </si>
   <si>
@@ -151,19 +133,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-426</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-426/replication-files/code</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>0-Setup-Stata.do</t>
@@ -231,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -239,13 +212,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -265,7 +238,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -277,7 +250,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -289,7 +262,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -301,7 +274,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -313,7 +286,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -325,7 +298,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -337,7 +310,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -349,7 +322,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -361,7 +334,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -373,10 +346,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D12"/>
     </row>
@@ -385,10 +358,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>267</v>
+        <v>448</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.14809916913509369</v>
       </c>
       <c r="D13"/>
     </row>
@@ -397,10 +370,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D14"/>
     </row>
@@ -409,10 +382,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>417</v>
+        <v>546</v>
       </c>
       <c r="C15">
-        <v>0.13826259970664978</v>
+        <v>0.18049587309360504</v>
       </c>
       <c r="D15"/>
     </row>
@@ -421,10 +394,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>469</v>
+        <v>563</v>
       </c>
       <c r="C16">
-        <v>0.15550397336483002</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D16"/>
     </row>
@@ -433,10 +406,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="C17">
-        <v>0.17506630718708038</v>
+        <v>0.18809917569160461</v>
       </c>
       <c r="D17"/>
     </row>
@@ -445,10 +418,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="C18">
-        <v>0.17705570161342621</v>
+        <v>0.19305785000324249</v>
       </c>
       <c r="D18"/>
     </row>
@@ -457,10 +430,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="C19">
-        <v>0.18136604130268097</v>
+        <v>0.19933883845806122</v>
       </c>
       <c r="D19"/>
     </row>
@@ -469,10 +442,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="C20">
-        <v>0.18733422458171844</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D20"/>
     </row>
@@ -481,10 +454,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C21">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D21"/>
     </row>
@@ -493,10 +466,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>596</v>
+        <v>738</v>
       </c>
       <c r="C22">
-        <v>0.19761273264884949</v>
+        <v>0.24396693706512451</v>
       </c>
       <c r="D22"/>
     </row>
@@ -505,10 +478,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>606</v>
+        <v>955</v>
       </c>
       <c r="C23">
-        <v>0.20092837512493134</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D23"/>
     </row>
@@ -517,10 +490,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>726</v>
+        <v>998</v>
       </c>
       <c r="C24">
-        <v>0.24071617424488068</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D24"/>
     </row>
@@ -529,10 +502,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>745</v>
+        <v>1125</v>
       </c>
       <c r="C25">
-        <v>0.24701590836048126</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D25"/>
     </row>
@@ -541,10 +514,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>985</v>
+        <v>1368</v>
       </c>
       <c r="C26">
-        <v>0.32659152150154114</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D26"/>
     </row>
@@ -553,10 +526,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1133</v>
+        <v>1414</v>
       </c>
       <c r="C27">
-        <v>0.37566313147544861</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D27"/>
     </row>
@@ -565,10 +538,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1194</v>
+        <v>1428</v>
       </c>
       <c r="C28">
-        <v>0.39588859677314758</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D28"/>
     </row>
@@ -577,10 +550,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1423</v>
+        <v>1469</v>
       </c>
       <c r="C29">
-        <v>0.47181698679924011</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D29"/>
     </row>
@@ -589,10 +562,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1444</v>
+        <v>1497</v>
       </c>
       <c r="C30">
-        <v>0.47877985239028931</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D30"/>
     </row>
@@ -601,10 +574,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1476</v>
+        <v>1564</v>
       </c>
       <c r="C31">
-        <v>0.48938992619514465</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D31"/>
     </row>
@@ -613,10 +586,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1553</v>
+        <v>1678</v>
       </c>
       <c r="C32">
-        <v>0.51492041349411011</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D32"/>
     </row>
@@ -625,10 +598,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1565</v>
+        <v>1838</v>
       </c>
       <c r="C33">
-        <v>0.51889920234680176</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D33"/>
     </row>
@@ -637,10 +610,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1621</v>
+        <v>2226</v>
       </c>
       <c r="C34">
-        <v>0.53746682405471802</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D34"/>
     </row>
@@ -649,84 +622,12 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1660</v>
+        <v>2436</v>
       </c>
       <c r="C35">
-        <v>0.55039787292480469</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1798</v>
-      </c>
-      <c r="C36">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1817</v>
-      </c>
-      <c r="C37">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1859</v>
-      </c>
-      <c r="C38">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2000</v>
-      </c>
-      <c r="C39">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2330</v>
-      </c>
-      <c r="C40">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2424</v>
-      </c>
-      <c r="C41">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D41"/>
     </row>
   </sheetData>
 </worksheet>
@@ -734,95 +635,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
